--- a/outQiqiXls/new_qiqi.xlsx
+++ b/outQiqiXls/new_qiqi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,18 +494,6 @@
         <v/>
       </c>
     </row>
-    <row r="11">
-      <c r="A11">
-        <f>HYPERLINK(".\ACCUREX-RSTAHL-20211210-SEA  400PCS\hello大啊","hello大啊")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <f>HYPERLINK(".\build\生成xls","生成xls")</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
